--- a/biology/Médecine/Plan_général_de_coordination_(France)/Plan_général_de_coordination_(France).xlsx
+++ b/biology/Médecine/Plan_général_de_coordination_(France)/Plan_général_de_coordination_(France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plan_g%C3%A9n%C3%A9ral_de_coordination_(France)</t>
+          <t>Plan_général_de_coordination_(France)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan général de coordination (PGC) ou plus complètement plan général de coordination de sécurité et de protection de la santé (PGCSPS) est un document, imposé par la règlementation française, qui définit l’ensemble des mesures qui doivent être mises en œuvre pour prévenir les risques sur certains chantiers de travaux de construction, de maintenance, etc. 
 Le PGC est requis pour toutes les opérations de catégories 1 ou 2, et aussi pour celles de catégorie 3 (PGCSPS simplifié) comportant des « travaux à risques particuliers ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plan_g%C3%A9n%C3%A9ral_de_coordination_(France)</t>
+          <t>Plan_général_de_coordination_(France)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition du PGCSPS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La définition règlementaire donnée par le code du travail dans son nouvel article R4532-43[legifrance 1] (anciennement article R238-21[legifrance 2]), est exactement la suivante :
 « Le plan général de coordination est un document écrit qui définit l'ensemble des mesures propres à prévenir les risques découlant de l'interférence des activités des différents intervenants sur le chantier, ou de la succession de leurs activités lorsqu'une intervention laisse subsister après son achèvement des risques pour les autres entreprises. »
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plan_g%C3%A9n%C3%A9ral_de_coordination_(France)</t>
+          <t>Plan_général_de_coordination_(France)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Contenu du PGCSPS suivant les modalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contenu du PGCSPS est également défini par le code du travail dans son article R4532-44[legifrance 4]
 « 
